--- a/omegalul.xlsx
+++ b/omegalul.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gvido\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gvido\Desktop\bruh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB939DB-3A62-430E-B917-7993FA4DBCFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1311FE-E66F-4670-9699-97592CB25EA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lapa1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Tavs sencis</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Gejars</t>
   </si>
@@ -37,6 +34,18 @@
   </si>
   <si>
     <t>Bomars</t>
+  </si>
+  <si>
+    <t>Cilveki</t>
+  </si>
+  <si>
+    <t>Nauda</t>
+  </si>
+  <si>
+    <t>Durvis</t>
+  </si>
+  <si>
+    <t>Piena litri</t>
   </si>
 </sst>
 </file>
@@ -357,28 +366,28 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>12</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>123</v>
@@ -392,7 +401,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>44</v>
@@ -406,7 +415,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>351</v>
